--- a/MODULE_RESOURCES.xlsx
+++ b/MODULE_RESOURCES.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jespinoz/Library/CloudStorage/GoogleDrive-jespinoz.jcvi@gmail.com/My Drive/Algorithms/Pipelines/veba_pipeline/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jespinoz/Library/CloudStorage/GoogleDrive-jespinoz.jcvi@gmail.com/My Drive/Algorithms/Pipelines/veba_pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797683FC-F803-F143-918E-329618965047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48070E0D-6C48-EB4B-B97F-E2BE6EAE3A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="16440" xr2:uid="{5EF8C56F-9BF5-7C42-B3EC-9DFAA1D4424F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MODULE_RESOURCES" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -678,7 +678,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/MODULE_RESOURCES.xlsx
+++ b/MODULE_RESOURCES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jespinoz/Library/CloudStorage/GoogleDrive-jespinoz.jcvi@gmail.com/My Drive/Algorithms/Pipelines/veba_pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48070E0D-6C48-EB4B-B97F-E2BE6EAE3A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F77DBE-1585-134A-90D5-38E4C792B900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="16440" xr2:uid="{5EF8C56F-9BF5-7C42-B3EC-9DFAA1D4424F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="101">
   <si>
     <t>Status</t>
   </si>
@@ -161,9 +161,6 @@
     <t>annotate.py</t>
   </si>
   <si>
-    <t>Annotates translated gene calls against NR, Pfam, and KOFAM</t>
-  </si>
-  <si>
     <t>VEBA-phylogeny_env</t>
   </si>
   <si>
@@ -324,6 +321,24 @@
   </si>
   <si>
     <t>amplicon</t>
+  </si>
+  <si>
+    <t>profile-taxonomy</t>
+  </si>
+  <si>
+    <t>profile-taxonomy.py</t>
+  </si>
+  <si>
+    <t>16-32GB</t>
+  </si>
+  <si>
+    <t>8-24GB</t>
+  </si>
+  <si>
+    <t>Taxonomic profiling of de novo genomes</t>
+  </si>
+  <si>
+    <t>Annotates translated gene calls</t>
   </si>
 </sst>
 </file>
@@ -675,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E75F847-3329-3E46-BBE4-D28C055F8ADA}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -703,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -720,7 +735,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -735,7 +750,7 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -743,13 +758,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -758,7 +773,7 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -766,7 +781,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -781,7 +796,7 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -789,13 +804,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -804,7 +819,7 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -812,7 +827,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -827,7 +842,7 @@
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -835,13 +850,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -850,7 +865,7 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -858,7 +873,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -881,7 +896,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -904,7 +919,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -927,7 +942,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -950,7 +965,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -973,7 +988,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -996,7 +1011,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -1019,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -1034,7 +1049,7 @@
         <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1042,22 +1057,22 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
         <v>42</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>43</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
       </c>
       <c r="F16">
         <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1065,13 +1080,13 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
         <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>47</v>
       </c>
       <c r="E17" t="s">
         <v>17</v>
@@ -1080,7 +1095,7 @@
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1088,13 +1103,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
         <v>17</v>
@@ -1103,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1111,13 +1126,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
         <v>51</v>
-      </c>
-      <c r="D19" t="s">
-        <v>52</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
@@ -1126,7 +1141,7 @@
         <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1134,68 +1149,91 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="F20">
         <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F21">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
         <v>54</v>
       </c>
-      <c r="B22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" t="s">
-        <v>58</v>
-      </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="F22">
         <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/MODULE_RESOURCES.xlsx
+++ b/MODULE_RESOURCES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jespinoz/Library/CloudStorage/GoogleDrive-jespinoz.jcvi@gmail.com/My Drive/Algorithms/Pipelines/veba_pipeline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jolespin/Cloud/Informatics/Development/Packages/veba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F77DBE-1585-134A-90D5-38E4C792B900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AB130F-C189-4B4B-A73C-11E044F56031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="16440" xr2:uid="{5EF8C56F-9BF5-7C42-B3EC-9DFAA1D4424F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="103">
   <si>
     <t>Status</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Detection of viral genomes and quality assessment</t>
   </si>
   <si>
-    <t>VEBA-classify_env</t>
-  </si>
-  <si>
     <t>classify-prokaryotic.py</t>
   </si>
   <si>
@@ -339,6 +336,15 @@
   </si>
   <si>
     <t>Annotates translated gene calls</t>
+  </si>
+  <si>
+    <t>VEBA-classify-prokaryotic_env</t>
+  </si>
+  <si>
+    <t>VEBA-classify-eukaryotic_env</t>
+  </si>
+  <si>
+    <t>VEBA-classify-viral_env</t>
   </si>
 </sst>
 </file>
@@ -394,9 +400,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -434,7 +440,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -540,7 +546,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -682,7 +688,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -692,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E75F847-3329-3E46-BBE4-D28C055F8ADA}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -718,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -735,7 +741,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -750,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -758,13 +764,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -773,7 +779,7 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -781,7 +787,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -796,7 +802,7 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -804,13 +810,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -819,7 +825,7 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -827,7 +833,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -842,7 +848,7 @@
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -850,13 +856,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -865,7 +871,7 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -873,7 +879,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -896,7 +902,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -919,7 +925,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -942,22 +948,22 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
       </c>
       <c r="F11">
         <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -965,22 +971,22 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
         <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -988,13 +994,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -1003,7 +1009,7 @@
         <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1011,22 +1017,22 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
         <v>35</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
       </c>
       <c r="F14">
         <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1034,22 +1040,22 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
         <v>39</v>
       </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15">
         <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1057,22 +1063,22 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
         <v>41</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>42</v>
-      </c>
-      <c r="E16" t="s">
-        <v>43</v>
       </c>
       <c r="F16">
         <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1080,13 +1086,13 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
         <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
       </c>
       <c r="E17" t="s">
         <v>17</v>
@@ -1095,7 +1101,7 @@
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1103,13 +1109,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
         <v>17</v>
@@ -1118,7 +1124,7 @@
         <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1126,13 +1132,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
         <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
@@ -1141,7 +1147,7 @@
         <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1149,22 +1155,22 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
         <v>95</v>
       </c>
-      <c r="C20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" t="s">
-        <v>96</v>
-      </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20">
         <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1172,36 +1178,36 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
         <v>68</v>
       </c>
-      <c r="D21" t="s">
-        <v>69</v>
-      </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F21">
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -1210,30 +1216,30 @@
         <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
         <v>56</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>57</v>
-      </c>
-      <c r="E23" t="s">
-        <v>58</v>
       </c>
       <c r="F23">
         <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
